--- a/medicine/Enfance/Éditions_Trampoline/Éditions_Trampoline.xlsx
+++ b/medicine/Enfance/Éditions_Trampoline/Éditions_Trampoline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Trampoline</t>
+          <t>Éditions_Trampoline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éditions Trampoline est une maison d'édition canadienne de littérature jeunesse fondée en 2005 à Longueuil au Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Trampoline</t>
+          <t>Éditions_Trampoline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,27 +525,236 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Collection Trouvailles
-Simon et la porte de fer, 2009, de Gisèle Desroches, illustré par Marion Arbona
+          <t>Collection Trouvailles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Simon et la porte de fer, 2009, de Gisèle Desroches, illustré par Marion Arbona
 Pied-de-Puce, 2009, de Sylvie Nicolas, illustré par Marion Arbona
-L'enfant qui tissait des tapis, 2010, de Sylvie Nicolas, illustré par Marion Arbona
-Les contes de la Bourgade-Enchantée
-Petite-Étoile, 2009, de Silvia Cramer, illustré par Marie-Claude Roch
-Albums
-Rosa-Noire Lerouge, 2010, de Isabelle Grondin, illustré par Sybiline
-Petits Romans
-Zoé et la sorcière, 2009, de Roxane Turcotte, illustré par Mary Racine
-Chevalier Poids-Plume, 2010, de Roxane Turcotte, illustré par Isabelle Malenfant
-Grands romans illustrés
-Entités: Tome 1 - Le jour de l'éveil, 2009, de Mathieu Fortin, illustré par Olivier Carpentier
+L'enfant qui tissait des tapis, 2010, de Sylvie Nicolas, illustré par Marion Arbona</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Éditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les contes de la Bourgade-Enchantée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Petite-Étoile, 2009, de Silvia Cramer, illustré par Marie-Claude Roch</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rosa-Noire Lerouge, 2010, de Isabelle Grondin, illustré par Sybiline</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Petits Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Zoé et la sorcière, 2009, de Roxane Turcotte, illustré par Mary Racine
+Chevalier Poids-Plume, 2010, de Roxane Turcotte, illustré par Isabelle Malenfant</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Grands romans illustrés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Entités: Tome 1 - Le jour de l'éveil, 2009, de Mathieu Fortin, illustré par Olivier Carpentier
 Les contes de la chatte rouge, 2010, de Elisabeth Vonarburg, illustré par Marie-Claude Roch
 Entités: Tome 2 - Trahisons, 2010, de Mathieu Fortin, illustré par Olivier Carpentier
-La lignée du sabre, à venir en 2011, de Geneviève Blouin, illustré par Sybiline
-Collection Bungee
-Clavardage.com, 2010, de Carole Moore
-Noirceurs et autres couleurs, 2010, de Mireille Gagné
-Saisonniers
-Grand-père au nez rouge
+La lignée du sabre, à venir en 2011, de Geneviève Blouin, illustré par Sybiline</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collection Bungee</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Clavardage.com, 2010, de Carole Moore
+Noirceurs et autres couleurs, 2010, de Mireille Gagné</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Éditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Trampoline</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saisonniers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Grand-père au nez rouge
 Le Père Noël perd sa culotte</t>
         </is>
       </c>
